--- a/ExecucoesGerais/novo__AGEO2vsAGEOsreais_2_AGEO2var.xlsx
+++ b/ExecucoesGerais/novo__AGEO2vsAGEOsreais_2_AGEO2var.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>NFE</t>
   </si>
@@ -30,10 +30,10 @@
     <t>AGEO2var_5</t>
   </si>
   <si>
-    <t>AGEOreal1_P</t>
+    <t>AGEO2real1_P</t>
   </si>
   <si>
-    <t>AGEOreal2_P_DS</t>
+    <t>AGEO2real2_P_DS</t>
   </si>
   <si>
     <t>============================================================================</t>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>parameter</t>
+  </si>
+  <si>
+    <t>AGEOreal1_P</t>
+  </si>
+  <si>
+    <t>AGEOreal2_P_DS</t>
   </si>
   <si>
     <t>meanNFE</t>
@@ -83,11 +89,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,13 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -133,6 +132,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,25 +158,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +182,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,24 +197,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,10 +210,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +235,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +275,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,31 +335,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,79 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,21 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,123 +524,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,19 +673,19 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1440,7 +1446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1741,7 +1747,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2965,7 +2971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,7 +3272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4490,7 +4496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4791,7 +4797,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6013,7 +6019,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6314,7 +6320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7538,7 +7544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7839,7 +7845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9063,7 +9069,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal1_P</c:v>
+                  <c:v>AGEO2real1_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9364,7 +9370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>AGEO2real2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13432,7 +13438,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
@@ -13443,7 +13449,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="685800" y="7423150"/>
-        <a:ext cx="4210050" cy="2743200"/>
+        <a:ext cx="4114800" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15228,8 +15234,8 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -15944,15 +15950,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100100</v>
@@ -15969,7 +15975,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>0.0675486656399638</v>
@@ -15986,7 +15992,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>0.0675486656399638</v>
@@ -16003,7 +16009,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>0.055764770727961</v>
@@ -16020,7 +16026,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>0.0559097267729375</v>
@@ -16037,7 +16043,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -16052,8 +16058,8 @@
   <sheetPr/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -16760,7 +16766,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -16779,15 +16785,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100160</v>
@@ -16804,7 +16810,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>17.1461816832892</v>
@@ -16821,7 +16827,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>17.1461816832892</v>
@@ -16838,7 +16844,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>16.1289875941025</v>
@@ -16855,7 +16861,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>4.32324356899741</v>
@@ -16882,8 +16888,8 @@
   <sheetPr/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -17588,7 +17594,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -17607,15 +17613,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100022</v>
@@ -17632,7 +17638,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2">
         <v>3.06903221875048e-5</v>
@@ -17649,7 +17655,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2">
         <v>3.06903221875048e-5</v>
@@ -17666,7 +17672,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2">
         <v>1.60256e-5</v>
@@ -17683,7 +17689,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2">
         <v>3.57500497710746e-5</v>
@@ -17710,8 +17716,8 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -18407,7 +18413,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -18426,15 +18432,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100000</v>
@@ -18451,7 +18457,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>508.084180341982</v>
@@ -18468,7 +18474,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>508.084180341982</v>
@@ -18485,7 +18491,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>473.007375774403</v>
@@ -18502,7 +18508,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>199.85381289947</v>
@@ -18529,8 +18535,8 @@
   <sheetPr/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -19242,7 +19248,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -19261,15 +19267,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100320</v>
@@ -19286,7 +19292,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>0.443141069872404</v>
@@ -19303,7 +19309,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>0.443141069872404</v>
@@ -19320,7 +19326,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>0.00485069153385708</v>
@@ -19337,7 +19343,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>0.731275651883862</v>
@@ -19364,8 +19370,8 @@
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -20078,7 +20084,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -20097,15 +20103,15 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>100022</v>
@@ -20122,7 +20128,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>0.023220009934823</v>
@@ -20139,7 +20145,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>0.023220009934823</v>
@@ -20156,7 +20162,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2">
         <v>8.91940497079451e-5</v>
@@ -20173,7 +20179,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>0.108985370096637</v>
@@ -20190,7 +20196,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
